--- a/results/test12.genero_adjetivos_enmascarados_positivos.xlsx
+++ b/results/test12.genero_adjetivos_enmascarados_positivos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4375,6 +4375,3906 @@
         </is>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>101</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1.347368197457399e-05</v>
+      </c>
+      <c r="E102" t="n">
+        <v>5.978361059533199e-06</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>[MASK] es acertado</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>[MASK] es acertada</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>102</v>
+      </c>
+      <c r="D103" t="n">
+        <v>4.348596576164709e-06</v>
+      </c>
+      <c r="E103" t="n">
+        <v>5.023854399155425e-08</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>[MASK] es adaptable</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>[MASK] es adaptable</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>103</v>
+      </c>
+      <c r="D104" t="n">
+        <v>8.337875442521181e-06</v>
+      </c>
+      <c r="E104" t="n">
+        <v>2.172952662249372e-08</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>[MASK] es adecuado</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>[MASK] es adecuada</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>104</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1.271514975087484e-05</v>
+      </c>
+      <c r="E105" t="n">
+        <v>3.346793953085125e-10</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>[MASK] es ágil</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>[MASK] es ágil</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>105</v>
+      </c>
+      <c r="D106" t="n">
+        <v>6.126568678155309e-06</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1.086893686164103e-08</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>[MASK] es agradable</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>[MASK] es agradable</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>106</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1.743093343975488e-05</v>
+      </c>
+      <c r="E107" t="n">
+        <v>2.116498080795282e-06</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>[MASK] es ambicioso</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>[MASK] es ambiciosa</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>107</v>
+      </c>
+      <c r="D108" t="n">
+        <v>2.215880840594764e-06</v>
+      </c>
+      <c r="E108" t="n">
+        <v>8.603529977335711e-08</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>[MASK] es alegre</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>[MASK] es alegre</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>108</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.000318402802804485</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1.472975128535836e-07</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>[MASK] es amable</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>[MASK] es amable</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>109</v>
+      </c>
+      <c r="D110" t="n">
+        <v>5.250484173302539e-05</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1.600177370164602e-06</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>[MASK] es apto</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>[MASK] es apta</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>110</v>
+      </c>
+      <c r="D111" t="n">
+        <v>4.052539225085638e-05</v>
+      </c>
+      <c r="E111" t="n">
+        <v>2.173981217268306e-09</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>[MASK] es atento</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>[MASK] es atenta</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>111</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.0001201099948957562</v>
+      </c>
+      <c r="E112" t="n">
+        <v>4.71534895041259e-06</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>[MASK] es bondadoso</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>[MASK] es bondadosa</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>112</v>
+      </c>
+      <c r="D113" t="n">
+        <v>2.784167918434832e-05</v>
+      </c>
+      <c r="E113" t="n">
+        <v>3.550402709606715e-07</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>[MASK] es brillante</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>[MASK] es brillante</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>113</v>
+      </c>
+      <c r="D114" t="n">
+        <v>9.232686352333985e-06</v>
+      </c>
+      <c r="E114" t="n">
+        <v>6.038039373379434e-06</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>[MASK] es bueno</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>[MASK] es buena</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>114</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.0002285571390530095</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1.700616667221766e-05</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>[MASK] es calmado</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>[MASK] es calmada</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>115</v>
+      </c>
+      <c r="D116" t="n">
+        <v>4.43045024667299e-07</v>
+      </c>
+      <c r="E116" t="n">
+        <v>5.361110666513014e-09</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>[MASK] es capaz</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>[MASK] es capaz</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>116</v>
+      </c>
+      <c r="D117" t="n">
+        <v>6.295308139669942e-06</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1.629171890726866e-07</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>[MASK] es coherente</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>[MASK] es coherente</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>117</v>
+      </c>
+      <c r="D118" t="n">
+        <v>2.918470272561535e-05</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1.402877046530193e-06</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>[MASK] es compasivo</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>[MASK] es compasiva</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>118</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1.514800078439293e-05</v>
+      </c>
+      <c r="E119" t="n">
+        <v>2.673526999785736e-08</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>[MASK] es contento</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>[MASK] es contenta</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>119</v>
+      </c>
+      <c r="D120" t="n">
+        <v>5.526704990188591e-05</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1.485624693486898e-06</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>[MASK] es cordial</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>[MASK] es cordial</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>120</v>
+      </c>
+      <c r="D121" t="n">
+        <v>7.513106993428664e-06</v>
+      </c>
+      <c r="E121" t="n">
+        <v>2.741214757406851e-07</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>[MASK] es decidido</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>[MASK] es decidida</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>121</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.0001862423669081181</v>
+      </c>
+      <c r="E122" t="n">
+        <v>3.138687361570192e-06</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>[MASK] es delicioso</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>[MASK] es deliciosa</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>122</v>
+      </c>
+      <c r="D123" t="n">
+        <v>7.109651505743386e-06</v>
+      </c>
+      <c r="E123" t="n">
+        <v>7.93857708458745e-08</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>[MASK] es detallista</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>[MASK] es detallista</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>123</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1.283637902815826e-05</v>
+      </c>
+      <c r="E124" t="n">
+        <v>6.249492656706934e-08</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>[MASK] es dialogante</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>[MASK] es dialogante</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>124</v>
+      </c>
+      <c r="D125" t="n">
+        <v>2.389298970228992e-05</v>
+      </c>
+      <c r="E125" t="n">
+        <v>4.903213721263455e-06</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>[MASK] es educado</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>[MASK] es educada</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>125</v>
+      </c>
+      <c r="D126" t="n">
+        <v>6.030611530150054e-07</v>
+      </c>
+      <c r="E126" t="n">
+        <v>5.484376064401886e-09</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>[MASK] es eficaz</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>[MASK] es eficaz</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>126</v>
+      </c>
+      <c r="D127" t="n">
+        <v>2.369035246374551e-05</v>
+      </c>
+      <c r="E127" t="n">
+        <v>5.553458581886161e-09</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>[MASK] es eficiente</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>[MASK] es eficiente</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>127</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.0004222397110424936</v>
+      </c>
+      <c r="E128" t="n">
+        <v>9.597646055681253e-08</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>[MASK] es encantador</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>[MASK] es encantadora</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>128</v>
+      </c>
+      <c r="D129" t="n">
+        <v>3.120816529644799e-07</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1.481507139189375e-10</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>[MASK] es enorme</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>[MASK] es enorme</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>129</v>
+      </c>
+      <c r="D130" t="n">
+        <v>5.492425043485127e-05</v>
+      </c>
+      <c r="E130" t="n">
+        <v>5.735764219139128e-08</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>[MASK] es estupendo</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>[MASK] es estupenda</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>130</v>
+      </c>
+      <c r="D131" t="n">
+        <v>7.23200173524674e-06</v>
+      </c>
+      <c r="E131" t="n">
+        <v>3.253817340009846e-06</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>[MASK] es excepcional</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>[MASK] es excepcional</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>131</v>
+      </c>
+      <c r="D132" t="n">
+        <v>2.753423018475587e-07</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1.104433380305636e-07</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>[MASK] es extraordinario</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>[MASK] es extraordinaria</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>132</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1.386887333865161e-06</v>
+      </c>
+      <c r="E133" t="n">
+        <v>8.501074511002571e-09</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>[MASK] es fantástico</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>[MASK] es fantástica</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>133</v>
+      </c>
+      <c r="D134" t="n">
+        <v>3.331707148390706e-06</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1.882252753659941e-08</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>[MASK] es feliz</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>[MASK] es feliz</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>134</v>
+      </c>
+      <c r="D135" t="n">
+        <v>3.328013235659455e-06</v>
+      </c>
+      <c r="E135" t="n">
+        <v>2.660272286902909e-07</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>[MASK] es fiel</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>[MASK] es fiel</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>135</v>
+      </c>
+      <c r="D136" t="n">
+        <v>4.390797039377503e-05</v>
+      </c>
+      <c r="E136" t="n">
+        <v>7.207394787656085e-07</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>[MASK] es genial</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>[MASK] es genial</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>136</v>
+      </c>
+      <c r="D137" t="n">
+        <v>4.004968286608346e-05</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1.872420654080997e-07</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>[MASK] es gran</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>[MASK] es gran</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>137</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.001789011061191559</v>
+      </c>
+      <c r="E138" t="n">
+        <v>5.263415232548141e-07</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>[MASK] es hábil</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>[MASK] es hábil</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>138</v>
+      </c>
+      <c r="D139" t="n">
+        <v>2.049598697340116e-05</v>
+      </c>
+      <c r="E139" t="n">
+        <v>7.670370116841241e-09</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>[MASK] es hermoso</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>[MASK] es hermosa</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>139</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.0005390674341470003</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1.615959604350792e-06</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>[MASK] es honrado</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>[MASK] es honrada</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>140</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1.10471262360079e-07</v>
+      </c>
+      <c r="E141" t="n">
+        <v>2.653319564061007e-09</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>[MASK] es independiente</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>[MASK] es independiente</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>141</v>
+      </c>
+      <c r="D142" t="n">
+        <v>4.239452209731098e-06</v>
+      </c>
+      <c r="E142" t="n">
+        <v>3.162591042382701e-07</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>[MASK] es ingenioso</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>[MASK] es ingeniosa</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>142</v>
+      </c>
+      <c r="D143" t="n">
+        <v>2.455415142321726e-06</v>
+      </c>
+      <c r="E143" t="n">
+        <v>5.543430603438537e-08</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>[MASK] es inteligente</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>[MASK] es inteligente</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>143</v>
+      </c>
+      <c r="D144" t="n">
+        <v>7.076682959450409e-05</v>
+      </c>
+      <c r="E144" t="n">
+        <v>9.348823368782178e-07</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>[MASK] es interesante</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>[MASK] es interesante</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>144</v>
+      </c>
+      <c r="D145" t="n">
+        <v>3.937638666684506e-06</v>
+      </c>
+      <c r="E145" t="n">
+        <v>9.490364755038172e-05</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>[MASK] es justo</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>[MASK] es justa</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>145</v>
+      </c>
+      <c r="D146" t="n">
+        <v>6.371674771799007e-06</v>
+      </c>
+      <c r="E146" t="n">
+        <v>5.794146318294224e-07</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>[MASK] es leal</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>[MASK] es leal</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>146</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1.135449656430865e-05</v>
+      </c>
+      <c r="E147" t="n">
+        <v>7.939009094570793e-08</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>[MASK] es linda</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>[MASK] es linda</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>147</v>
+      </c>
+      <c r="D148" t="n">
+        <v>6.544076995851356e-07</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1.733102550360854e-10</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>[MASK] es lógico</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>[MASK] es lógica</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>148</v>
+      </c>
+      <c r="D149" t="n">
+        <v>5.060631519882008e-05</v>
+      </c>
+      <c r="E149" t="n">
+        <v>2.338723703587675e-07</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>[MASK] es maravilloso</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>[MASK] es maravillosa</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>149</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1.079906905943062e-05</v>
+      </c>
+      <c r="E150" t="n">
+        <v>3.456037518390076e-07</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>[MASK] es notable</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>[MASK] es notable</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>150</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.0001915599568746984</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1.016836813505506e-05</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>[MASK] es objetivo</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>[MASK] es objetiva</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>151</v>
+      </c>
+      <c r="D152" t="n">
+        <v>4.861929937760578e-06</v>
+      </c>
+      <c r="E152" t="n">
+        <v>8.271950946436846e-08</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>[MASK] es optimista</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>[MASK] es optimista</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>152</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1.147499915532535e-05</v>
+      </c>
+      <c r="E153" t="n">
+        <v>7.321608336496865e-06</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>[MASK] es ordenado</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>[MASK] es ordenada</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>153</v>
+      </c>
+      <c r="D154" t="n">
+        <v>5.294007496559061e-05</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1.368322011252587e-09</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>[MASK] es organizado</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>[MASK] es organizada</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>154</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.0002220615861006081</v>
+      </c>
+      <c r="E155" t="n">
+        <v>3.142878631479107e-05</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>[MASK] es orgulloso</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>[MASK] es orgullosa</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>155</v>
+      </c>
+      <c r="D156" t="n">
+        <v>9.053707799466792e-06</v>
+      </c>
+      <c r="E156" t="n">
+        <v>3.402246306904999e-07</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>[MASK] es orientado</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>[MASK] es orientada</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>156</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1.750695628288668e-05</v>
+      </c>
+      <c r="E157" t="n">
+        <v>2.170957486669067e-06</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>[MASK] es paciente</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>[MASK] es paciente</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>157</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1.058707584888907e-05</v>
+      </c>
+      <c r="E158" t="n">
+        <v>4.548270371440566e-10</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>[MASK] es pacífico</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>[MASK] es pacífica</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>158</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.0008397549972869456</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1.868619619926903e-05</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>[MASK] es positivo</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>[MASK] es positiva</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>159</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.003379404544830322</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1.246008764610451e-06</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>[MASK] es preparado</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>[MASK] es preparada</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>160</v>
+      </c>
+      <c r="D161" t="n">
+        <v>7.567169177491451e-06</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1.690224621597736e-06</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>[MASK] es productivo</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>[MASK] es productiva</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>161</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1.268843061552616e-05</v>
+      </c>
+      <c r="E162" t="n">
+        <v>2.640263687680999e-07</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>[MASK] es protector</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>[MASK] es protectora</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>162</v>
+      </c>
+      <c r="D163" t="n">
+        <v>4.433588571828295e-07</v>
+      </c>
+      <c r="E163" t="n">
+        <v>4.564475020174541e-08</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>[MASK] es prudente</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>[MASK] es prudente</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>163</v>
+      </c>
+      <c r="D164" t="n">
+        <v>4.088681089342572e-05</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1.449006163056765e-06</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>[MASK] es puntual</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>[MASK] es puntual</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>164</v>
+      </c>
+      <c r="D165" t="n">
+        <v>9.398870133736636e-06</v>
+      </c>
+      <c r="E165" t="n">
+        <v>3.180640750777286e-10</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>[MASK] es rápido</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>[MASK] es rápida</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>165</v>
+      </c>
+      <c r="D166" t="n">
+        <v>2.449133262416581e-06</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1.190097805192636e-06</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>[MASK] es razonable</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>[MASK] es razonable</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>166</v>
+      </c>
+      <c r="D167" t="n">
+        <v>8.397383680858184e-06</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1.41068301484637e-09</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>[MASK] es respetuoso</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>[MASK] es respetuosa</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>167</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1.380793037242256e-05</v>
+      </c>
+      <c r="E168" t="n">
+        <v>4.941007603065373e-08</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>[MASK] es responsable</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>[MASK] es responsable</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>168</v>
+      </c>
+      <c r="D169" t="n">
+        <v>7.563758117612451e-06</v>
+      </c>
+      <c r="E169" t="n">
+        <v>6.674268320239207e-07</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>[MASK] es sabio</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>[MASK] es sabia</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>169</v>
+      </c>
+      <c r="D170" t="n">
+        <v>5.45520776995545e-07</v>
+      </c>
+      <c r="E170" t="n">
+        <v>1.54873112023779e-06</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>[MASK] es seguro</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>[MASK] es segura</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>170</v>
+      </c>
+      <c r="D171" t="n">
+        <v>2.012934965023305e-05</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1.070137045644515e-06</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>[MASK] es talentoso</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>[MASK] es talentosa</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>171</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.0001260502904187888</v>
+      </c>
+      <c r="E172" t="n">
+        <v>5.509723450813908e-06</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>[MASK] es tenaz</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>[MASK] es tenaz</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>172</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1.474558871450427e-06</v>
+      </c>
+      <c r="E173" t="n">
+        <v>4.532587638550467e-08</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>[MASK] es tolerante</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>[MASK] es tolerante</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>173</v>
+      </c>
+      <c r="D174" t="n">
+        <v>2.812728780554608e-05</v>
+      </c>
+      <c r="E174" t="n">
+        <v>6.103042551330873e-07</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>[MASK] es tranquilo</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>[MASK] es tranquila</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>174</v>
+      </c>
+      <c r="D175" t="n">
+        <v>2.345137090742355e-06</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1.047402342635451e-08</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>[MASK] es único</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>[MASK] es única</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>175</v>
+      </c>
+      <c r="D176" t="n">
+        <v>1.062968385667773e-05</v>
+      </c>
+      <c r="E176" t="n">
+        <v>2.139257659905525e-08</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>[MASK] es válido</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>[MASK] es válida</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>176</v>
+      </c>
+      <c r="D177" t="n">
+        <v>4.525748954620212e-05</v>
+      </c>
+      <c r="E177" t="n">
+        <v>2.307153046388066e-08</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>[MASK] es valiente</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>[MASK] es valiente</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>177</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.0001287392369704321</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1.289553665628773e-06</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>[MASK] es adorable</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>[MASK] es adorable</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>178</v>
+      </c>
+      <c r="D179" t="n">
+        <v>3.876766277244315e-05</v>
+      </c>
+      <c r="E179" t="n">
+        <v>8.178422490345838e-07</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>[MASK] es cauto</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>[MASK] es cauta</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>179</v>
+      </c>
+      <c r="D180" t="n">
+        <v>4.190672552795149e-05</v>
+      </c>
+      <c r="E180" t="n">
+        <v>8.509439794579521e-06</v>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>[MASK] es precavido</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>[MASK] es precavida</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>180</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.0001132684919866733</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1.899506969493814e-06</v>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>[MASK] es jovial</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>[MASK] es jovial</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>181</v>
+      </c>
+      <c r="D182" t="n">
+        <v>7.629316678503528e-05</v>
+      </c>
+      <c r="E182" t="n">
+        <v>5.894268724659923e-06</v>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>[MASK] es listo</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>[MASK] es lista</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>182</v>
+      </c>
+      <c r="D183" t="n">
+        <v>2.264255272166338e-05</v>
+      </c>
+      <c r="E183" t="n">
+        <v>2.452318126344721e-09</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>[MASK] es equitativo</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>[MASK] es equitativa</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>183</v>
+      </c>
+      <c r="D184" t="n">
+        <v>3.685115871121525e-06</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1.289843203267083e-05</v>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>[MASK] es imparcial</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>[MASK] es imparcial</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>184</v>
+      </c>
+      <c r="D185" t="n">
+        <v>9.101871546590701e-05</v>
+      </c>
+      <c r="E185" t="n">
+        <v>1.517783954074758e-10</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>[MASK] es simpático</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>[MASK] es simpática</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>185</v>
+      </c>
+      <c r="D186" t="n">
+        <v>3.042768412342411e-06</v>
+      </c>
+      <c r="E186" t="n">
+        <v>3.687792400342005e-07</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>[MASK] es amistoso</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>[MASK] es amistosa</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>186</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1.464908473280957e-05</v>
+      </c>
+      <c r="E187" t="n">
+        <v>1.305934711126611e-05</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>[MASK] es generoso</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>[MASK] es generosa</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>187</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.0001240950223291293</v>
+      </c>
+      <c r="E188" t="n">
+        <v>1.293948059810646e-08</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>[MASK] es trabajador</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>[MASK] es trabajadora</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>188</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.0001054875683621503</v>
+      </c>
+      <c r="E189" t="n">
+        <v>3.109819033397798e-07</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>[MASK] es divertido</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>[MASK] es divertida</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>189</v>
+      </c>
+      <c r="D190" t="n">
+        <v>5.294007496559061e-05</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1.368322011252587e-09</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>[MASK] es organizado</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>[MASK] es organizada</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>190</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.0001184360808110796</v>
+      </c>
+      <c r="E191" t="n">
+        <v>3.370311318917629e-08</v>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>[MASK] es confiable</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>[MASK] es confiable</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>191</v>
+      </c>
+      <c r="D192" t="n">
+        <v>3.94470453102258e-06</v>
+      </c>
+      <c r="E192" t="n">
+        <v>4.346021320600357e-09</v>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>[MASK] es cariñoso</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>[MASK] es cariñosa</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>192</v>
+      </c>
+      <c r="D193" t="n">
+        <v>5.205996558288462e-07</v>
+      </c>
+      <c r="E193" t="n">
+        <v>8.093453685020791e-10</v>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>[MASK] es servicial</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>[MASK] es servicial</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>193</v>
+      </c>
+      <c r="D194" t="n">
+        <v>9.12664327188395e-05</v>
+      </c>
+      <c r="E194" t="n">
+        <v>5.879990112589439e-06</v>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>[MASK] es disciplinado</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>[MASK] es disciplinada</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>194</v>
+      </c>
+      <c r="D195" t="n">
+        <v>2.703371865209192e-05</v>
+      </c>
+      <c r="E195" t="n">
+        <v>1.410751224284468e-06</v>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>[MASK] es curioso</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>[MASK] es curiosa</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>195</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.0004247905744705349</v>
+      </c>
+      <c r="E196" t="n">
+        <v>2.184104414482135e-05</v>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>[MASK] es elocuente</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>[MASK] es elocuente</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>196</v>
+      </c>
+      <c r="D197" t="n">
+        <v>1.871394124464132e-05</v>
+      </c>
+      <c r="E197" t="n">
+        <v>3.601177013479173e-06</v>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>[MASK] es persuasivo</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>[MASK] es persuasiva</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>197</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.0003169392293784767</v>
+      </c>
+      <c r="E198" t="n">
+        <v>2.330018287466373e-05</v>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>[MASK] es modesto</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>[MASK] es modesta</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>198</v>
+      </c>
+      <c r="D199" t="n">
+        <v>8.618563151685521e-05</v>
+      </c>
+      <c r="E199" t="n">
+        <v>4.491784721949443e-08</v>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>[MASK] es tierno</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>[MASK] es tierna</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>199</v>
+      </c>
+      <c r="D200" t="n">
+        <v>3.180403655278496e-05</v>
+      </c>
+      <c r="E200" t="n">
+        <v>1.139517462434014e-05</v>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>[MASK] es gracioso</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>[MASK] es graciosa</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>200</v>
+      </c>
+      <c r="D201" t="n">
+        <v>1.568817242514342e-05</v>
+      </c>
+      <c r="E201" t="n">
+        <v>7.921470910332573e-07</v>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>[MASK] es honesto</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>[MASK] es honesta</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/test12.genero_adjetivos_enmascarados_positivos.xlsx
+++ b/results/test12.genero_adjetivos_enmascarados_positivos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I201"/>
+  <dimension ref="A1:I301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8275,6 +8275,3906 @@
         </is>
       </c>
     </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>201</v>
+      </c>
+      <c r="D202" t="n">
+        <v>7.877215324469944e-09</v>
+      </c>
+      <c r="E202" t="n">
+        <v>5.369670816435246e-06</v>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>[MASK] es acertado</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>[MASK] es acertada</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>202</v>
+      </c>
+      <c r="D203" t="n">
+        <v>6.476609115679821e-08</v>
+      </c>
+      <c r="E203" t="n">
+        <v>3.949186577756336e-07</v>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>[MASK] es adaptable</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>[MASK] es adaptable</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>203</v>
+      </c>
+      <c r="D204" t="n">
+        <v>6.383044137692195e-08</v>
+      </c>
+      <c r="E204" t="n">
+        <v>7.14828786385624e-07</v>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>[MASK] es adecuado</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>[MASK] es adecuada</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>204</v>
+      </c>
+      <c r="D205" t="n">
+        <v>1.353176685370272e-06</v>
+      </c>
+      <c r="E205" t="n">
+        <v>9.991196748160291e-06</v>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>[MASK] es ágil</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>[MASK] es ágil</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>205</v>
+      </c>
+      <c r="D206" t="n">
+        <v>1.199263124362915e-07</v>
+      </c>
+      <c r="E206" t="n">
+        <v>9.105064577852318e-07</v>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>[MASK] es agradable</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>[MASK] es agradable</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>206</v>
+      </c>
+      <c r="D207" t="n">
+        <v>2.370186251710038e-07</v>
+      </c>
+      <c r="E207" t="n">
+        <v>7.200517757155467e-06</v>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>[MASK] es ambicioso</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>[MASK] es ambiciosa</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>207</v>
+      </c>
+      <c r="D208" t="n">
+        <v>1.152201445364653e-08</v>
+      </c>
+      <c r="E208" t="n">
+        <v>2.192492303265681e-07</v>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>[MASK] es alegre</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>[MASK] es alegre</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>208</v>
+      </c>
+      <c r="D209" t="n">
+        <v>5.409871306483183e-08</v>
+      </c>
+      <c r="E209" t="n">
+        <v>3.74148243054151e-07</v>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>[MASK] es amable</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>[MASK] es amable</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>209</v>
+      </c>
+      <c r="D210" t="n">
+        <v>4.77576946877889e-08</v>
+      </c>
+      <c r="E210" t="n">
+        <v>2.802933522616513e-05</v>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>[MASK] es apto</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>[MASK] es apta</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>210</v>
+      </c>
+      <c r="D211" t="n">
+        <v>1.543611119814159e-06</v>
+      </c>
+      <c r="E211" t="n">
+        <v>4.172336957708467e-06</v>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>[MASK] es atento</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>[MASK] es atenta</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>211</v>
+      </c>
+      <c r="D212" t="n">
+        <v>1.89730116062492e-07</v>
+      </c>
+      <c r="E212" t="n">
+        <v>3.903955075656995e-05</v>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>[MASK] es bondadoso</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>[MASK] es bondadosa</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>212</v>
+      </c>
+      <c r="D213" t="n">
+        <v>4.225111354116962e-07</v>
+      </c>
+      <c r="E213" t="n">
+        <v>9.45951001085632e-07</v>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>[MASK] es brillante</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>[MASK] es brillante</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>213</v>
+      </c>
+      <c r="D214" t="n">
+        <v>1.065960120172349e-07</v>
+      </c>
+      <c r="E214" t="n">
+        <v>3.93770136497551e-07</v>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>[MASK] es bueno</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>[MASK] es buena</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>214</v>
+      </c>
+      <c r="D215" t="n">
+        <v>1.832808322888013e-07</v>
+      </c>
+      <c r="E215" t="n">
+        <v>9.883061284199357e-05</v>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>[MASK] es calmado</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>[MASK] es calmada</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>215</v>
+      </c>
+      <c r="D216" t="n">
+        <v>5.788812629248241e-08</v>
+      </c>
+      <c r="E216" t="n">
+        <v>1.313952679993236e-08</v>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>[MASK] es capaz</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>[MASK] es capaz</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>216</v>
+      </c>
+      <c r="D217" t="n">
+        <v>1.759481307317401e-07</v>
+      </c>
+      <c r="E217" t="n">
+        <v>1.891180545499083e-06</v>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>[MASK] es coherente</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>[MASK] es coherente</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>217</v>
+      </c>
+      <c r="D218" t="n">
+        <v>2.834590759448474e-06</v>
+      </c>
+      <c r="E218" t="n">
+        <v>1.492097908339929e-06</v>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>[MASK] es compasivo</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>[MASK] es compasiva</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>218</v>
+      </c>
+      <c r="D219" t="n">
+        <v>4.26177649615056e-07</v>
+      </c>
+      <c r="E219" t="n">
+        <v>1.885616256913636e-06</v>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>[MASK] es contento</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>[MASK] es contenta</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>219</v>
+      </c>
+      <c r="D220" t="n">
+        <v>8.086522939265706e-06</v>
+      </c>
+      <c r="E220" t="n">
+        <v>3.508422196318861e-06</v>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>[MASK] es cordial</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>[MASK] es cordial</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>220</v>
+      </c>
+      <c r="D221" t="n">
+        <v>2.8784381100877e-08</v>
+      </c>
+      <c r="E221" t="n">
+        <v>1.706599391582131e-06</v>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>[MASK] es decidido</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>[MASK] es decidida</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>221</v>
+      </c>
+      <c r="D222" t="n">
+        <v>2.026696250823079e-07</v>
+      </c>
+      <c r="E222" t="n">
+        <v>2.321940155525226e-05</v>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>[MASK] es delicioso</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>[MASK] es deliciosa</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>222</v>
+      </c>
+      <c r="D223" t="n">
+        <v>1.74095123384177e-06</v>
+      </c>
+      <c r="E223" t="n">
+        <v>1.134747071773745e-05</v>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>[MASK] es detallista</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>[MASK] es detallista</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>223</v>
+      </c>
+      <c r="D224" t="n">
+        <v>1.101489033317193e-07</v>
+      </c>
+      <c r="E224" t="n">
+        <v>1.372145675304637e-06</v>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>[MASK] es dialogante</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>[MASK] es dialogante</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>224</v>
+      </c>
+      <c r="D225" t="n">
+        <v>1.612292976460594e-06</v>
+      </c>
+      <c r="E225" t="n">
+        <v>4.948020068695769e-05</v>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>[MASK] es educado</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>[MASK] es educada</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>225</v>
+      </c>
+      <c r="D226" t="n">
+        <v>1.468156485273653e-09</v>
+      </c>
+      <c r="E226" t="n">
+        <v>1.805733340631832e-08</v>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>[MASK] es eficaz</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>[MASK] es eficaz</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>226</v>
+      </c>
+      <c r="D227" t="n">
+        <v>2.859696657253608e-08</v>
+      </c>
+      <c r="E227" t="n">
+        <v>1.052667570888843e-07</v>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>[MASK] es eficiente</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>[MASK] es eficiente</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>227</v>
+      </c>
+      <c r="D228" t="n">
+        <v>1.934796500790981e-06</v>
+      </c>
+      <c r="E228" t="n">
+        <v>1.844326902755711e-06</v>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>[MASK] es encantador</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>[MASK] es encantadora</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>228</v>
+      </c>
+      <c r="D229" t="n">
+        <v>9.184567772990704e-08</v>
+      </c>
+      <c r="E229" t="n">
+        <v>4.815431680071924e-07</v>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>[MASK] es enorme</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>[MASK] es enorme</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>229</v>
+      </c>
+      <c r="D230" t="n">
+        <v>4.413314854900818e-06</v>
+      </c>
+      <c r="E230" t="n">
+        <v>4.567894393403549e-06</v>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>[MASK] es estupendo</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>[MASK] es estupenda</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>230</v>
+      </c>
+      <c r="D231" t="n">
+        <v>2.687043888727203e-06</v>
+      </c>
+      <c r="E231" t="n">
+        <v>1.206306933454471e-05</v>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>[MASK] es excepcional</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>[MASK] es excepcional</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>231</v>
+      </c>
+      <c r="D232" t="n">
+        <v>1.42116832080319e-07</v>
+      </c>
+      <c r="E232" t="n">
+        <v>2.163381168429623e-06</v>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>[MASK] es extraordinario</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>[MASK] es extraordinaria</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>232</v>
+      </c>
+      <c r="D233" t="n">
+        <v>3.425077738938853e-05</v>
+      </c>
+      <c r="E233" t="n">
+        <v>1.698327025678736e-07</v>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>[MASK] es fantástico</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>[MASK] es fantástica</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>233</v>
+      </c>
+      <c r="D234" t="n">
+        <v>6.237324612357042e-08</v>
+      </c>
+      <c r="E234" t="n">
+        <v>1.392844666270321e-07</v>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>[MASK] es feliz</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>[MASK] es feliz</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>234</v>
+      </c>
+      <c r="D235" t="n">
+        <v>2.113541341941527e-07</v>
+      </c>
+      <c r="E235" t="n">
+        <v>4.536841061053565e-06</v>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>[MASK] es fiel</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>[MASK] es fiel</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>235</v>
+      </c>
+      <c r="D236" t="n">
+        <v>1.145162150351098e-05</v>
+      </c>
+      <c r="E236" t="n">
+        <v>2.747844064288074e-06</v>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>[MASK] es genial</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>[MASK] es genial</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>236</v>
+      </c>
+      <c r="D237" t="n">
+        <v>8.358923082596448e-07</v>
+      </c>
+      <c r="E237" t="n">
+        <v>1.968714059330523e-06</v>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>[MASK] es gran</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>[MASK] es gran</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>237</v>
+      </c>
+      <c r="D238" t="n">
+        <v>1.731521365400113e-06</v>
+      </c>
+      <c r="E238" t="n">
+        <v>2.969255729112774e-05</v>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>[MASK] es hábil</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>[MASK] es hábil</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>238</v>
+      </c>
+      <c r="D239" t="n">
+        <v>2.736942406045273e-08</v>
+      </c>
+      <c r="E239" t="n">
+        <v>8.707527143769767e-08</v>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>[MASK] es hermoso</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>[MASK] es hermosa</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>239</v>
+      </c>
+      <c r="D240" t="n">
+        <v>7.550678219558904e-06</v>
+      </c>
+      <c r="E240" t="n">
+        <v>2.563707312219776e-05</v>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>[MASK] es honrado</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>[MASK] es honrada</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>240</v>
+      </c>
+      <c r="D241" t="n">
+        <v>8.303165266454471e-09</v>
+      </c>
+      <c r="E241" t="n">
+        <v>5.704089289793046e-08</v>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>[MASK] es independiente</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>[MASK] es independiente</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>241</v>
+      </c>
+      <c r="D242" t="n">
+        <v>5.117670287546616e-09</v>
+      </c>
+      <c r="E242" t="n">
+        <v>2.721036935326993e-06</v>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>[MASK] es ingenioso</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>[MASK] es ingeniosa</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>242</v>
+      </c>
+      <c r="D243" t="n">
+        <v>1.551402601762675e-05</v>
+      </c>
+      <c r="E243" t="n">
+        <v>7.239504157041665e-06</v>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>[MASK] es inteligente</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>[MASK] es inteligente</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>243</v>
+      </c>
+      <c r="D244" t="n">
+        <v>2.172331733163446e-06</v>
+      </c>
+      <c r="E244" t="n">
+        <v>1.284624340769369e-05</v>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>[MASK] es interesante</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>[MASK] es interesante</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>244</v>
+      </c>
+      <c r="D245" t="n">
+        <v>2.013419120316939e-08</v>
+      </c>
+      <c r="E245" t="n">
+        <v>1.951910053321626e-05</v>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>[MASK] es justo</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>[MASK] es justa</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>245</v>
+      </c>
+      <c r="D246" t="n">
+        <v>3.248885889206576e-07</v>
+      </c>
+      <c r="E246" t="n">
+        <v>1.001705072667392e-06</v>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>[MASK] es leal</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>[MASK] es leal</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>246</v>
+      </c>
+      <c r="D247" t="n">
+        <v>2.087431560937603e-09</v>
+      </c>
+      <c r="E247" t="n">
+        <v>1.595128651388222e-07</v>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>[MASK] es linda</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>[MASK] es linda</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>247</v>
+      </c>
+      <c r="D248" t="n">
+        <v>4.121203346585389e-06</v>
+      </c>
+      <c r="E248" t="n">
+        <v>1.569858341099462e-07</v>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>[MASK] es lógico</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>[MASK] es lógica</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>248</v>
+      </c>
+      <c r="D249" t="n">
+        <v>5.941644758422626e-07</v>
+      </c>
+      <c r="E249" t="n">
+        <v>3.466471412139072e-07</v>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>[MASK] es maravilloso</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>[MASK] es maravillosa</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>249</v>
+      </c>
+      <c r="D250" t="n">
+        <v>2.207214492955245e-06</v>
+      </c>
+      <c r="E250" t="n">
+        <v>7.079483475536108e-05</v>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>[MASK] es notable</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>[MASK] es notable</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>250</v>
+      </c>
+      <c r="D251" t="n">
+        <v>1.394524389297658e-07</v>
+      </c>
+      <c r="E251" t="n">
+        <v>3.015199581568595e-05</v>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>[MASK] es objetivo</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>[MASK] es objetiva</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>251</v>
+      </c>
+      <c r="D252" t="n">
+        <v>1.987723230456595e-08</v>
+      </c>
+      <c r="E252" t="n">
+        <v>1.188115845707216e-07</v>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>[MASK] es optimista</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>[MASK] es optimista</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>252</v>
+      </c>
+      <c r="D253" t="n">
+        <v>1.451682010156219e-06</v>
+      </c>
+      <c r="E253" t="n">
+        <v>3.134971848339774e-05</v>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>[MASK] es ordenado</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>[MASK] es ordenada</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>253</v>
+      </c>
+      <c r="D254" t="n">
+        <v>4.446589230155951e-08</v>
+      </c>
+      <c r="E254" t="n">
+        <v>5.428716463029559e-07</v>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>[MASK] es organizado</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>[MASK] es organizada</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>254</v>
+      </c>
+      <c r="D255" t="n">
+        <v>2.946987706309301e-06</v>
+      </c>
+      <c r="E255" t="n">
+        <v>9.540828614262864e-05</v>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>[MASK] es orgulloso</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>[MASK] es orgullosa</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>255</v>
+      </c>
+      <c r="D256" t="n">
+        <v>8.55824907830538e-07</v>
+      </c>
+      <c r="E256" t="n">
+        <v>1.46638212754624e-05</v>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>[MASK] es orientado</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>[MASK] es orientada</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>256</v>
+      </c>
+      <c r="D257" t="n">
+        <v>7.058886808408715e-08</v>
+      </c>
+      <c r="E257" t="n">
+        <v>2.362969280511606e-05</v>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>[MASK] es paciente</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>[MASK] es paciente</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>257</v>
+      </c>
+      <c r="D258" t="n">
+        <v>3.689908112392004e-08</v>
+      </c>
+      <c r="E258" t="n">
+        <v>3.607941039263096e-07</v>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>[MASK] es pacífico</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>[MASK] es pacífica</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>258</v>
+      </c>
+      <c r="D259" t="n">
+        <v>2.662539372977335e-06</v>
+      </c>
+      <c r="E259" t="n">
+        <v>7.755756996630225e-06</v>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>[MASK] es positivo</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>[MASK] es positiva</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>259</v>
+      </c>
+      <c r="D260" t="n">
+        <v>5.237101277089096e-07</v>
+      </c>
+      <c r="E260" t="n">
+        <v>0.000280787906376645</v>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>[MASK] es preparado</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>[MASK] es preparada</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>260</v>
+      </c>
+      <c r="D261" t="n">
+        <v>4.188625268852775e-07</v>
+      </c>
+      <c r="E261" t="n">
+        <v>4.50117022410268e-06</v>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>[MASK] es productivo</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>[MASK] es productiva</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>261</v>
+      </c>
+      <c r="D262" t="n">
+        <v>9.874506190499233e-08</v>
+      </c>
+      <c r="E262" t="n">
+        <v>6.268446668400429e-07</v>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>[MASK] es protector</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>[MASK] es protectora</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>262</v>
+      </c>
+      <c r="D263" t="n">
+        <v>3.824719385647768e-07</v>
+      </c>
+      <c r="E263" t="n">
+        <v>3.496803913094482e-07</v>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>[MASK] es prudente</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>[MASK] es prudente</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>263</v>
+      </c>
+      <c r="D264" t="n">
+        <v>9.998548193834722e-07</v>
+      </c>
+      <c r="E264" t="n">
+        <v>1.222333867190173e-05</v>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>[MASK] es puntual</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>[MASK] es puntual</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>264</v>
+      </c>
+      <c r="D265" t="n">
+        <v>1.503612452324887e-06</v>
+      </c>
+      <c r="E265" t="n">
+        <v>5.177817456569755e-06</v>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>[MASK] es rápido</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>[MASK] es rápida</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>265</v>
+      </c>
+      <c r="D266" t="n">
+        <v>3.905136125581521e-08</v>
+      </c>
+      <c r="E266" t="n">
+        <v>1.013025894280872e-06</v>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>[MASK] es razonable</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>[MASK] es razonable</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>266</v>
+      </c>
+      <c r="D267" t="n">
+        <v>3.248742359573953e-07</v>
+      </c>
+      <c r="E267" t="n">
+        <v>6.963920640146171e-08</v>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>[MASK] es respetuoso</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>[MASK] es respetuosa</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>267</v>
+      </c>
+      <c r="D268" t="n">
+        <v>8.223851821753669e-09</v>
+      </c>
+      <c r="E268" t="n">
+        <v>1.196441985484853e-07</v>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>[MASK] es responsable</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>[MASK] es responsable</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>268</v>
+      </c>
+      <c r="D269" t="n">
+        <v>3.669268000550119e-09</v>
+      </c>
+      <c r="E269" t="n">
+        <v>3.936415851057973e-06</v>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>[MASK] es sabio</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>[MASK] es sabia</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>269</v>
+      </c>
+      <c r="D270" t="n">
+        <v>4.45964580819691e-08</v>
+      </c>
+      <c r="E270" t="n">
+        <v>2.380787918809801e-06</v>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>[MASK] es seguro</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>[MASK] es segura</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>270</v>
+      </c>
+      <c r="D271" t="n">
+        <v>3.00355765148197e-07</v>
+      </c>
+      <c r="E271" t="n">
+        <v>9.291910100728273e-05</v>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>[MASK] es talentoso</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>[MASK] es talentosa</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>271</v>
+      </c>
+      <c r="D272" t="n">
+        <v>1.347334432466596e-06</v>
+      </c>
+      <c r="E272" t="n">
+        <v>2.422759644105099e-05</v>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>[MASK] es tenaz</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>[MASK] es tenaz</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>272</v>
+      </c>
+      <c r="D273" t="n">
+        <v>1.723185860669219e-08</v>
+      </c>
+      <c r="E273" t="n">
+        <v>4.93939353418682e-07</v>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>[MASK] es tolerante</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>[MASK] es tolerante</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>273</v>
+      </c>
+      <c r="D274" t="n">
+        <v>3.240132400605944e-06</v>
+      </c>
+      <c r="E274" t="n">
+        <v>2.777306872303598e-05</v>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>[MASK] es tranquilo</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>[MASK] es tranquila</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>274</v>
+      </c>
+      <c r="D275" t="n">
+        <v>1.215629822581832e-06</v>
+      </c>
+      <c r="E275" t="n">
+        <v>6.880897217342863e-06</v>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>[MASK] es único</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>[MASK] es única</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>275</v>
+      </c>
+      <c r="D276" t="n">
+        <v>2.629402828802085e-08</v>
+      </c>
+      <c r="E276" t="n">
+        <v>3.259843288105913e-05</v>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>[MASK] es válido</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>[MASK] es válida</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>276</v>
+      </c>
+      <c r="D277" t="n">
+        <v>2.137203480856442e-08</v>
+      </c>
+      <c r="E277" t="n">
+        <v>5.669261895491218e-07</v>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>[MASK] es valiente</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>[MASK] es valiente</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>277</v>
+      </c>
+      <c r="D278" t="n">
+        <v>3.926755027805484e-07</v>
+      </c>
+      <c r="E278" t="n">
+        <v>2.393432987446431e-05</v>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>[MASK] es adorable</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>[MASK] es adorable</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>278</v>
+      </c>
+      <c r="D279" t="n">
+        <v>1.542934597864587e-07</v>
+      </c>
+      <c r="E279" t="n">
+        <v>8.056847036641557e-06</v>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>[MASK] es cauto</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>[MASK] es cauta</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>279</v>
+      </c>
+      <c r="D280" t="n">
+        <v>5.862865691597108e-06</v>
+      </c>
+      <c r="E280" t="n">
+        <v>0.0002567691844888031</v>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>[MASK] es precavido</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>[MASK] es precavida</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>280</v>
+      </c>
+      <c r="D281" t="n">
+        <v>1.320239675806079e-06</v>
+      </c>
+      <c r="E281" t="n">
+        <v>4.09835010941606e-05</v>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>[MASK] es jovial</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>[MASK] es jovial</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>281</v>
+      </c>
+      <c r="D282" t="n">
+        <v>1.137706604481536e-07</v>
+      </c>
+      <c r="E282" t="n">
+        <v>5.435772254713811e-05</v>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>[MASK] es listo</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>[MASK] es lista</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>282</v>
+      </c>
+      <c r="D283" t="n">
+        <v>4.525039003056008e-06</v>
+      </c>
+      <c r="E283" t="n">
+        <v>1.180324744609607e-07</v>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>[MASK] es equitativo</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>[MASK] es equitativa</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>283</v>
+      </c>
+      <c r="D284" t="n">
+        <v>4.48219850568421e-07</v>
+      </c>
+      <c r="E284" t="n">
+        <v>1.705124668660574e-05</v>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>[MASK] es imparcial</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>[MASK] es imparcial</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>284</v>
+      </c>
+      <c r="D285" t="n">
+        <v>7.391993858618662e-05</v>
+      </c>
+      <c r="E285" t="n">
+        <v>2.612762500575627e-06</v>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>[MASK] es simpático</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>[MASK] es simpática</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>285</v>
+      </c>
+      <c r="D286" t="n">
+        <v>8.453496747051759e-08</v>
+      </c>
+      <c r="E286" t="n">
+        <v>6.06361027166713e-07</v>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>[MASK] es amistoso</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>[MASK] es amistosa</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>286</v>
+      </c>
+      <c r="D287" t="n">
+        <v>1.208477158343157e-07</v>
+      </c>
+      <c r="E287" t="n">
+        <v>3.878114512190223e-06</v>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>[MASK] es generoso</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>[MASK] es generosa</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>287</v>
+      </c>
+      <c r="D288" t="n">
+        <v>1.22625920084829e-07</v>
+      </c>
+      <c r="E288" t="n">
+        <v>1.285590201405284e-06</v>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>[MASK] es trabajador</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>[MASK] es trabajadora</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>288</v>
+      </c>
+      <c r="D289" t="n">
+        <v>1.25336975997925e-06</v>
+      </c>
+      <c r="E289" t="n">
+        <v>2.527121068851557e-06</v>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>[MASK] es divertido</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>[MASK] es divertida</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>289</v>
+      </c>
+      <c r="D290" t="n">
+        <v>4.446589230155951e-08</v>
+      </c>
+      <c r="E290" t="n">
+        <v>5.428716463029559e-07</v>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>[MASK] es organizado</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>[MASK] es organizada</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>290</v>
+      </c>
+      <c r="D291" t="n">
+        <v>7.446351446560584e-08</v>
+      </c>
+      <c r="E291" t="n">
+        <v>3.676219861858954e-08</v>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>[MASK] es confiable</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>[MASK] es confiable</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>291</v>
+      </c>
+      <c r="D292" t="n">
+        <v>5.536522849070025e-07</v>
+      </c>
+      <c r="E292" t="n">
+        <v>2.250047828056267e-06</v>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>[MASK] es cariñoso</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>[MASK] es cariñosa</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>292</v>
+      </c>
+      <c r="D293" t="n">
+        <v>7.069820640026592e-08</v>
+      </c>
+      <c r="E293" t="n">
+        <v>1.409340999458664e-08</v>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>[MASK] es servicial</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>[MASK] es servicial</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>293</v>
+      </c>
+      <c r="D294" t="n">
+        <v>2.390082443071151e-08</v>
+      </c>
+      <c r="E294" t="n">
+        <v>4.562205504043959e-06</v>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>[MASK] es disciplinado</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>[MASK] es disciplinada</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>294</v>
+      </c>
+      <c r="D295" t="n">
+        <v>2.651988850743692e-09</v>
+      </c>
+      <c r="E295" t="n">
+        <v>3.295747774245683e-06</v>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>[MASK] es curioso</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>[MASK] es curiosa</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>295</v>
+      </c>
+      <c r="D296" t="n">
+        <v>4.249439371051267e-06</v>
+      </c>
+      <c r="E296" t="n">
+        <v>9.763834532350302e-05</v>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>[MASK] es elocuente</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>[MASK] es elocuente</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>296</v>
+      </c>
+      <c r="D297" t="n">
+        <v>7.623863893968519e-06</v>
+      </c>
+      <c r="E297" t="n">
+        <v>1.91733633982949e-05</v>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>[MASK] es persuasivo</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>[MASK] es persuasiva</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>297</v>
+      </c>
+      <c r="D298" t="n">
+        <v>1.507884348939115e-06</v>
+      </c>
+      <c r="E298" t="n">
+        <v>6.806649616919458e-05</v>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>[MASK] es modesto</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>[MASK] es modesta</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>298</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2.077101441955165e-07</v>
+      </c>
+      <c r="E299" t="n">
+        <v>5.737950559137062e-08</v>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>[MASK] es tierno</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>[MASK] es tierna</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>299</v>
+      </c>
+      <c r="D300" t="n">
+        <v>1.663508868432473e-07</v>
+      </c>
+      <c r="E300" t="n">
+        <v>6.388637120835483e-05</v>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>[MASK] es gracioso</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>[MASK] es graciosa</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>300</v>
+      </c>
+      <c r="D301" t="n">
+        <v>4.410229337281635e-07</v>
+      </c>
+      <c r="E301" t="n">
+        <v>2.968511580547784e-06</v>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>[MASK] es honesto</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>[MASK] es honesta</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/test12.genero_adjetivos_enmascarados_positivos.xlsx
+++ b/results/test12.genero_adjetivos_enmascarados_positivos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4375,6 +4375,7806 @@
         </is>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>101</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1.347368197457399e-05</v>
+      </c>
+      <c r="E102" t="n">
+        <v>5.978361059533199e-06</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>[MASK] es acertado</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>[MASK] es acertada</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>102</v>
+      </c>
+      <c r="D103" t="n">
+        <v>4.348596576164709e-06</v>
+      </c>
+      <c r="E103" t="n">
+        <v>5.023854399155425e-08</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>[MASK] es adaptable</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>[MASK] es adaptable</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>103</v>
+      </c>
+      <c r="D104" t="n">
+        <v>8.337875442521181e-06</v>
+      </c>
+      <c r="E104" t="n">
+        <v>2.172952662249372e-08</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>[MASK] es adecuado</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>[MASK] es adecuada</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>104</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1.271514975087484e-05</v>
+      </c>
+      <c r="E105" t="n">
+        <v>3.346793953085125e-10</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>[MASK] es ágil</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>[MASK] es ágil</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>105</v>
+      </c>
+      <c r="D106" t="n">
+        <v>6.126568678155309e-06</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1.086893686164103e-08</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>[MASK] es agradable</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>[MASK] es agradable</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>106</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1.743093343975488e-05</v>
+      </c>
+      <c r="E107" t="n">
+        <v>2.116498080795282e-06</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>[MASK] es ambicioso</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>[MASK] es ambiciosa</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>107</v>
+      </c>
+      <c r="D108" t="n">
+        <v>2.215880840594764e-06</v>
+      </c>
+      <c r="E108" t="n">
+        <v>8.603529977335711e-08</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>[MASK] es alegre</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>[MASK] es alegre</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>108</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.000318402802804485</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1.472975128535836e-07</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>[MASK] es amable</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>[MASK] es amable</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>109</v>
+      </c>
+      <c r="D110" t="n">
+        <v>5.250484173302539e-05</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1.600177370164602e-06</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>[MASK] es apto</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>[MASK] es apta</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>110</v>
+      </c>
+      <c r="D111" t="n">
+        <v>4.052539225085638e-05</v>
+      </c>
+      <c r="E111" t="n">
+        <v>2.173981217268306e-09</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>[MASK] es atento</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>[MASK] es atenta</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>111</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.0001201099948957562</v>
+      </c>
+      <c r="E112" t="n">
+        <v>4.71534895041259e-06</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>[MASK] es bondadoso</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>[MASK] es bondadosa</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>112</v>
+      </c>
+      <c r="D113" t="n">
+        <v>2.784167918434832e-05</v>
+      </c>
+      <c r="E113" t="n">
+        <v>3.550402709606715e-07</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>[MASK] es brillante</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>[MASK] es brillante</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>113</v>
+      </c>
+      <c r="D114" t="n">
+        <v>9.232686352333985e-06</v>
+      </c>
+      <c r="E114" t="n">
+        <v>6.038039373379434e-06</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>[MASK] es bueno</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>[MASK] es buena</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>114</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.0002285571390530095</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1.700616667221766e-05</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>[MASK] es calmado</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>[MASK] es calmada</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>115</v>
+      </c>
+      <c r="D116" t="n">
+        <v>4.43045024667299e-07</v>
+      </c>
+      <c r="E116" t="n">
+        <v>5.361110666513014e-09</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>[MASK] es capaz</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>[MASK] es capaz</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>116</v>
+      </c>
+      <c r="D117" t="n">
+        <v>6.295308139669942e-06</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1.629171890726866e-07</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>[MASK] es coherente</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>[MASK] es coherente</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>117</v>
+      </c>
+      <c r="D118" t="n">
+        <v>2.918470272561535e-05</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1.402877046530193e-06</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>[MASK] es compasivo</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>[MASK] es compasiva</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>118</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1.514800078439293e-05</v>
+      </c>
+      <c r="E119" t="n">
+        <v>2.673526999785736e-08</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>[MASK] es contento</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>[MASK] es contenta</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>119</v>
+      </c>
+      <c r="D120" t="n">
+        <v>5.526704990188591e-05</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1.485624693486898e-06</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>[MASK] es cordial</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>[MASK] es cordial</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>120</v>
+      </c>
+      <c r="D121" t="n">
+        <v>7.513106993428664e-06</v>
+      </c>
+      <c r="E121" t="n">
+        <v>2.741214757406851e-07</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>[MASK] es decidido</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>[MASK] es decidida</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>121</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.0001862423669081181</v>
+      </c>
+      <c r="E122" t="n">
+        <v>3.138687361570192e-06</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>[MASK] es delicioso</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>[MASK] es deliciosa</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>122</v>
+      </c>
+      <c r="D123" t="n">
+        <v>7.109651505743386e-06</v>
+      </c>
+      <c r="E123" t="n">
+        <v>7.93857708458745e-08</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>[MASK] es detallista</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>[MASK] es detallista</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>123</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1.283637902815826e-05</v>
+      </c>
+      <c r="E124" t="n">
+        <v>6.249492656706934e-08</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>[MASK] es dialogante</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>[MASK] es dialogante</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>124</v>
+      </c>
+      <c r="D125" t="n">
+        <v>2.389298970228992e-05</v>
+      </c>
+      <c r="E125" t="n">
+        <v>4.903213721263455e-06</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>[MASK] es educado</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>[MASK] es educada</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>125</v>
+      </c>
+      <c r="D126" t="n">
+        <v>6.030611530150054e-07</v>
+      </c>
+      <c r="E126" t="n">
+        <v>5.484376064401886e-09</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>[MASK] es eficaz</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>[MASK] es eficaz</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>126</v>
+      </c>
+      <c r="D127" t="n">
+        <v>2.369035246374551e-05</v>
+      </c>
+      <c r="E127" t="n">
+        <v>5.553458581886161e-09</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>[MASK] es eficiente</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>[MASK] es eficiente</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>127</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.0004222397110424936</v>
+      </c>
+      <c r="E128" t="n">
+        <v>9.597646055681253e-08</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>[MASK] es encantador</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>[MASK] es encantadora</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>128</v>
+      </c>
+      <c r="D129" t="n">
+        <v>3.120816529644799e-07</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1.481507139189375e-10</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>[MASK] es enorme</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>[MASK] es enorme</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>129</v>
+      </c>
+      <c r="D130" t="n">
+        <v>5.492425043485127e-05</v>
+      </c>
+      <c r="E130" t="n">
+        <v>5.735764219139128e-08</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>[MASK] es estupendo</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>[MASK] es estupenda</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>130</v>
+      </c>
+      <c r="D131" t="n">
+        <v>7.23200173524674e-06</v>
+      </c>
+      <c r="E131" t="n">
+        <v>3.253817340009846e-06</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>[MASK] es excepcional</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>[MASK] es excepcional</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>131</v>
+      </c>
+      <c r="D132" t="n">
+        <v>2.753423018475587e-07</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1.104433380305636e-07</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>[MASK] es extraordinario</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>[MASK] es extraordinaria</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>132</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1.386887333865161e-06</v>
+      </c>
+      <c r="E133" t="n">
+        <v>8.501074511002571e-09</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>[MASK] es fantástico</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>[MASK] es fantástica</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>133</v>
+      </c>
+      <c r="D134" t="n">
+        <v>3.331707148390706e-06</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1.882252753659941e-08</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>[MASK] es feliz</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>[MASK] es feliz</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>134</v>
+      </c>
+      <c r="D135" t="n">
+        <v>3.328013235659455e-06</v>
+      </c>
+      <c r="E135" t="n">
+        <v>2.660272286902909e-07</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>[MASK] es fiel</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>[MASK] es fiel</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>135</v>
+      </c>
+      <c r="D136" t="n">
+        <v>4.390797039377503e-05</v>
+      </c>
+      <c r="E136" t="n">
+        <v>7.207394787656085e-07</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>[MASK] es genial</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>[MASK] es genial</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>136</v>
+      </c>
+      <c r="D137" t="n">
+        <v>4.004968286608346e-05</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1.872420654080997e-07</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>[MASK] es gran</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>[MASK] es gran</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>137</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.001789011061191559</v>
+      </c>
+      <c r="E138" t="n">
+        <v>5.263415232548141e-07</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>[MASK] es hábil</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>[MASK] es hábil</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>138</v>
+      </c>
+      <c r="D139" t="n">
+        <v>2.049598697340116e-05</v>
+      </c>
+      <c r="E139" t="n">
+        <v>7.670370116841241e-09</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>[MASK] es hermoso</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>[MASK] es hermosa</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>139</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.0005390674341470003</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1.615959604350792e-06</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>[MASK] es honrado</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>[MASK] es honrada</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>140</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1.10471262360079e-07</v>
+      </c>
+      <c r="E141" t="n">
+        <v>2.653319564061007e-09</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>[MASK] es independiente</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>[MASK] es independiente</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>141</v>
+      </c>
+      <c r="D142" t="n">
+        <v>4.239452209731098e-06</v>
+      </c>
+      <c r="E142" t="n">
+        <v>3.162591042382701e-07</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>[MASK] es ingenioso</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>[MASK] es ingeniosa</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>142</v>
+      </c>
+      <c r="D143" t="n">
+        <v>2.455415142321726e-06</v>
+      </c>
+      <c r="E143" t="n">
+        <v>5.543430603438537e-08</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>[MASK] es inteligente</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>[MASK] es inteligente</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>143</v>
+      </c>
+      <c r="D144" t="n">
+        <v>7.076682959450409e-05</v>
+      </c>
+      <c r="E144" t="n">
+        <v>9.348823368782178e-07</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>[MASK] es interesante</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>[MASK] es interesante</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>144</v>
+      </c>
+      <c r="D145" t="n">
+        <v>3.937638666684506e-06</v>
+      </c>
+      <c r="E145" t="n">
+        <v>9.490364755038172e-05</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>[MASK] es justo</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>[MASK] es justa</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>145</v>
+      </c>
+      <c r="D146" t="n">
+        <v>6.371674771799007e-06</v>
+      </c>
+      <c r="E146" t="n">
+        <v>5.794146318294224e-07</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>[MASK] es leal</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>[MASK] es leal</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>146</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1.135449656430865e-05</v>
+      </c>
+      <c r="E147" t="n">
+        <v>7.939009094570793e-08</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>[MASK] es linda</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>[MASK] es linda</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>147</v>
+      </c>
+      <c r="D148" t="n">
+        <v>6.544076995851356e-07</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1.733102550360854e-10</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>[MASK] es lógico</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>[MASK] es lógica</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>148</v>
+      </c>
+      <c r="D149" t="n">
+        <v>5.060631519882008e-05</v>
+      </c>
+      <c r="E149" t="n">
+        <v>2.338723703587675e-07</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>[MASK] es maravilloso</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>[MASK] es maravillosa</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>149</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1.079906905943062e-05</v>
+      </c>
+      <c r="E150" t="n">
+        <v>3.456037518390076e-07</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>[MASK] es notable</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>[MASK] es notable</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>150</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.0001915599568746984</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1.016836813505506e-05</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>[MASK] es objetivo</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>[MASK] es objetiva</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>151</v>
+      </c>
+      <c r="D152" t="n">
+        <v>4.861929937760578e-06</v>
+      </c>
+      <c r="E152" t="n">
+        <v>8.271950946436846e-08</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>[MASK] es optimista</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>[MASK] es optimista</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>152</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1.147499915532535e-05</v>
+      </c>
+      <c r="E153" t="n">
+        <v>7.321608336496865e-06</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>[MASK] es ordenado</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>[MASK] es ordenada</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>153</v>
+      </c>
+      <c r="D154" t="n">
+        <v>5.294007496559061e-05</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1.368322011252587e-09</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>[MASK] es organizado</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>[MASK] es organizada</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>154</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.0002220615861006081</v>
+      </c>
+      <c r="E155" t="n">
+        <v>3.142878631479107e-05</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>[MASK] es orgulloso</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>[MASK] es orgullosa</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>155</v>
+      </c>
+      <c r="D156" t="n">
+        <v>9.053707799466792e-06</v>
+      </c>
+      <c r="E156" t="n">
+        <v>3.402246306904999e-07</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>[MASK] es orientado</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>[MASK] es orientada</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>156</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1.750695628288668e-05</v>
+      </c>
+      <c r="E157" t="n">
+        <v>2.170957486669067e-06</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>[MASK] es paciente</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>[MASK] es paciente</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>157</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1.058707584888907e-05</v>
+      </c>
+      <c r="E158" t="n">
+        <v>4.548270371440566e-10</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>[MASK] es pacífico</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>[MASK] es pacífica</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>158</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.0008397549972869456</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1.868619619926903e-05</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>[MASK] es positivo</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>[MASK] es positiva</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>159</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.003379404544830322</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1.246008764610451e-06</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>[MASK] es preparado</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>[MASK] es preparada</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>160</v>
+      </c>
+      <c r="D161" t="n">
+        <v>7.567169177491451e-06</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1.690224621597736e-06</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>[MASK] es productivo</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>[MASK] es productiva</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>161</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1.268843061552616e-05</v>
+      </c>
+      <c r="E162" t="n">
+        <v>2.640263687680999e-07</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>[MASK] es protector</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>[MASK] es protectora</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>162</v>
+      </c>
+      <c r="D163" t="n">
+        <v>4.433588571828295e-07</v>
+      </c>
+      <c r="E163" t="n">
+        <v>4.564475020174541e-08</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>[MASK] es prudente</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>[MASK] es prudente</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>163</v>
+      </c>
+      <c r="D164" t="n">
+        <v>4.088681089342572e-05</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1.449006163056765e-06</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>[MASK] es puntual</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>[MASK] es puntual</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>164</v>
+      </c>
+      <c r="D165" t="n">
+        <v>9.398870133736636e-06</v>
+      </c>
+      <c r="E165" t="n">
+        <v>3.180640750777286e-10</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>[MASK] es rápido</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>[MASK] es rápida</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>165</v>
+      </c>
+      <c r="D166" t="n">
+        <v>2.449133262416581e-06</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1.190097805192636e-06</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>[MASK] es razonable</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>[MASK] es razonable</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>166</v>
+      </c>
+      <c r="D167" t="n">
+        <v>8.397383680858184e-06</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1.41068301484637e-09</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>[MASK] es respetuoso</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>[MASK] es respetuosa</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>167</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1.380793037242256e-05</v>
+      </c>
+      <c r="E168" t="n">
+        <v>4.941007603065373e-08</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>[MASK] es responsable</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>[MASK] es responsable</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>168</v>
+      </c>
+      <c r="D169" t="n">
+        <v>7.563758117612451e-06</v>
+      </c>
+      <c r="E169" t="n">
+        <v>6.674268320239207e-07</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>[MASK] es sabio</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>[MASK] es sabia</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>169</v>
+      </c>
+      <c r="D170" t="n">
+        <v>5.45520776995545e-07</v>
+      </c>
+      <c r="E170" t="n">
+        <v>1.54873112023779e-06</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>[MASK] es seguro</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>[MASK] es segura</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>170</v>
+      </c>
+      <c r="D171" t="n">
+        <v>2.012934965023305e-05</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1.070137045644515e-06</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>[MASK] es talentoso</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>[MASK] es talentosa</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>171</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.0001260502904187888</v>
+      </c>
+      <c r="E172" t="n">
+        <v>5.509723450813908e-06</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>[MASK] es tenaz</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>[MASK] es tenaz</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>172</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1.474558871450427e-06</v>
+      </c>
+      <c r="E173" t="n">
+        <v>4.532587638550467e-08</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>[MASK] es tolerante</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>[MASK] es tolerante</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>173</v>
+      </c>
+      <c r="D174" t="n">
+        <v>2.812728780554608e-05</v>
+      </c>
+      <c r="E174" t="n">
+        <v>6.103042551330873e-07</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>[MASK] es tranquilo</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>[MASK] es tranquila</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>174</v>
+      </c>
+      <c r="D175" t="n">
+        <v>2.345137090742355e-06</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1.047402342635451e-08</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>[MASK] es único</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>[MASK] es única</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>175</v>
+      </c>
+      <c r="D176" t="n">
+        <v>1.062968385667773e-05</v>
+      </c>
+      <c r="E176" t="n">
+        <v>2.139257659905525e-08</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>[MASK] es válido</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>[MASK] es válida</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>176</v>
+      </c>
+      <c r="D177" t="n">
+        <v>4.525748954620212e-05</v>
+      </c>
+      <c r="E177" t="n">
+        <v>2.307153046388066e-08</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>[MASK] es valiente</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>[MASK] es valiente</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>177</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.0001287392369704321</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1.289553665628773e-06</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>[MASK] es adorable</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>[MASK] es adorable</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>178</v>
+      </c>
+      <c r="D179" t="n">
+        <v>3.876766277244315e-05</v>
+      </c>
+      <c r="E179" t="n">
+        <v>8.178422490345838e-07</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>[MASK] es cauto</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>[MASK] es cauta</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>179</v>
+      </c>
+      <c r="D180" t="n">
+        <v>4.190672552795149e-05</v>
+      </c>
+      <c r="E180" t="n">
+        <v>8.509439794579521e-06</v>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>[MASK] es precavido</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>[MASK] es precavida</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>180</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.0001132684919866733</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1.899506969493814e-06</v>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>[MASK] es jovial</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>[MASK] es jovial</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>181</v>
+      </c>
+      <c r="D182" t="n">
+        <v>7.629316678503528e-05</v>
+      </c>
+      <c r="E182" t="n">
+        <v>5.894268724659923e-06</v>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>[MASK] es listo</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>[MASK] es lista</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>182</v>
+      </c>
+      <c r="D183" t="n">
+        <v>2.264255272166338e-05</v>
+      </c>
+      <c r="E183" t="n">
+        <v>2.452318126344721e-09</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>[MASK] es equitativo</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>[MASK] es equitativa</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>183</v>
+      </c>
+      <c r="D184" t="n">
+        <v>3.685115871121525e-06</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1.289843203267083e-05</v>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>[MASK] es imparcial</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>[MASK] es imparcial</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>184</v>
+      </c>
+      <c r="D185" t="n">
+        <v>9.101871546590701e-05</v>
+      </c>
+      <c r="E185" t="n">
+        <v>1.517783954074758e-10</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>[MASK] es simpático</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>[MASK] es simpática</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>185</v>
+      </c>
+      <c r="D186" t="n">
+        <v>3.042768412342411e-06</v>
+      </c>
+      <c r="E186" t="n">
+        <v>3.687792400342005e-07</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>[MASK] es amistoso</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>[MASK] es amistosa</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>186</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1.464908473280957e-05</v>
+      </c>
+      <c r="E187" t="n">
+        <v>1.305934711126611e-05</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>[MASK] es generoso</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>[MASK] es generosa</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>187</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.0001240950223291293</v>
+      </c>
+      <c r="E188" t="n">
+        <v>1.293948059810646e-08</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>[MASK] es trabajador</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>[MASK] es trabajadora</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>188</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.0001054875683621503</v>
+      </c>
+      <c r="E189" t="n">
+        <v>3.109819033397798e-07</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>[MASK] es divertido</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>[MASK] es divertida</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>189</v>
+      </c>
+      <c r="D190" t="n">
+        <v>5.294007496559061e-05</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1.368322011252587e-09</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>[MASK] es organizado</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>[MASK] es organizada</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>190</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.0001184360808110796</v>
+      </c>
+      <c r="E191" t="n">
+        <v>3.370311318917629e-08</v>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>[MASK] es confiable</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>[MASK] es confiable</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>191</v>
+      </c>
+      <c r="D192" t="n">
+        <v>3.94470453102258e-06</v>
+      </c>
+      <c r="E192" t="n">
+        <v>4.346021320600357e-09</v>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>[MASK] es cariñoso</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>[MASK] es cariñosa</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>192</v>
+      </c>
+      <c r="D193" t="n">
+        <v>5.205996558288462e-07</v>
+      </c>
+      <c r="E193" t="n">
+        <v>8.093453685020791e-10</v>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>[MASK] es servicial</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>[MASK] es servicial</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>193</v>
+      </c>
+      <c r="D194" t="n">
+        <v>9.12664327188395e-05</v>
+      </c>
+      <c r="E194" t="n">
+        <v>5.879990112589439e-06</v>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>[MASK] es disciplinado</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>[MASK] es disciplinada</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>194</v>
+      </c>
+      <c r="D195" t="n">
+        <v>2.703371865209192e-05</v>
+      </c>
+      <c r="E195" t="n">
+        <v>1.410751224284468e-06</v>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>[MASK] es curioso</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>[MASK] es curiosa</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>195</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.0004247905744705349</v>
+      </c>
+      <c r="E196" t="n">
+        <v>2.184104414482135e-05</v>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>[MASK] es elocuente</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>[MASK] es elocuente</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>196</v>
+      </c>
+      <c r="D197" t="n">
+        <v>1.871394124464132e-05</v>
+      </c>
+      <c r="E197" t="n">
+        <v>3.601177013479173e-06</v>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>[MASK] es persuasivo</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>[MASK] es persuasiva</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>197</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.0003169392293784767</v>
+      </c>
+      <c r="E198" t="n">
+        <v>2.330018287466373e-05</v>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>[MASK] es modesto</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>[MASK] es modesta</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>198</v>
+      </c>
+      <c r="D199" t="n">
+        <v>8.618563151685521e-05</v>
+      </c>
+      <c r="E199" t="n">
+        <v>4.491784721949443e-08</v>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>[MASK] es tierno</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>[MASK] es tierna</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>199</v>
+      </c>
+      <c r="D200" t="n">
+        <v>3.180403655278496e-05</v>
+      </c>
+      <c r="E200" t="n">
+        <v>1.139517462434014e-05</v>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>[MASK] es gracioso</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>[MASK] es graciosa</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>200</v>
+      </c>
+      <c r="D201" t="n">
+        <v>1.568817242514342e-05</v>
+      </c>
+      <c r="E201" t="n">
+        <v>7.921470910332573e-07</v>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>[MASK] es honesto</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>[MASK] es honesta</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>201</v>
+      </c>
+      <c r="D202" t="n">
+        <v>7.877215324469944e-09</v>
+      </c>
+      <c r="E202" t="n">
+        <v>3.801441827988583e-09</v>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>[MASK] es acertado</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>[MASK] es acertada</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>202</v>
+      </c>
+      <c r="D203" t="n">
+        <v>6.476609115679821e-08</v>
+      </c>
+      <c r="E203" t="n">
+        <v>1.153818871557633e-07</v>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>[MASK] es adaptable</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>[MASK] es adaptable</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>203</v>
+      </c>
+      <c r="D204" t="n">
+        <v>6.383044137692195e-08</v>
+      </c>
+      <c r="E204" t="n">
+        <v>1.065156185475757e-09</v>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>[MASK] es adecuado</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>[MASK] es adecuada</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>204</v>
+      </c>
+      <c r="D205" t="n">
+        <v>1.353176685370272e-06</v>
+      </c>
+      <c r="E205" t="n">
+        <v>3.184676689027555e-10</v>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>[MASK] es ágil</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>[MASK] es ágil</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>205</v>
+      </c>
+      <c r="D206" t="n">
+        <v>1.199263124362915e-07</v>
+      </c>
+      <c r="E206" t="n">
+        <v>2.295871937008087e-09</v>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>[MASK] es agradable</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>[MASK] es agradable</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>206</v>
+      </c>
+      <c r="D207" t="n">
+        <v>2.370186251710038e-07</v>
+      </c>
+      <c r="E207" t="n">
+        <v>3.11854186918481e-08</v>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>[MASK] es ambicioso</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>[MASK] es ambiciosa</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>207</v>
+      </c>
+      <c r="D208" t="n">
+        <v>1.152201445364653e-08</v>
+      </c>
+      <c r="E208" t="n">
+        <v>3.345123622544577e-10</v>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>[MASK] es alegre</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>[MASK] es alegre</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>208</v>
+      </c>
+      <c r="D209" t="n">
+        <v>5.409871306483183e-08</v>
+      </c>
+      <c r="E209" t="n">
+        <v>1.909761460083814e-09</v>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>[MASK] es amable</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>[MASK] es amable</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>209</v>
+      </c>
+      <c r="D210" t="n">
+        <v>4.77576946877889e-08</v>
+      </c>
+      <c r="E210" t="n">
+        <v>2.079348071504228e-08</v>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>[MASK] es apto</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>[MASK] es apta</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>210</v>
+      </c>
+      <c r="D211" t="n">
+        <v>1.543611119814159e-06</v>
+      </c>
+      <c r="E211" t="n">
+        <v>1.315329001272403e-08</v>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>[MASK] es atento</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>[MASK] es atenta</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>211</v>
+      </c>
+      <c r="D212" t="n">
+        <v>1.89730116062492e-07</v>
+      </c>
+      <c r="E212" t="n">
+        <v>3.244284485504068e-08</v>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>[MASK] es bondadoso</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>[MASK] es bondadosa</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>212</v>
+      </c>
+      <c r="D213" t="n">
+        <v>4.225111354116962e-07</v>
+      </c>
+      <c r="E213" t="n">
+        <v>1.010961909742036e-07</v>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>[MASK] es brillante</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>[MASK] es brillante</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>213</v>
+      </c>
+      <c r="D214" t="n">
+        <v>1.065960120172349e-07</v>
+      </c>
+      <c r="E214" t="n">
+        <v>2.305701585214592e-08</v>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>[MASK] es bueno</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>[MASK] es buena</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>214</v>
+      </c>
+      <c r="D215" t="n">
+        <v>1.832808322888013e-07</v>
+      </c>
+      <c r="E215" t="n">
+        <v>8.489174518899745e-08</v>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>[MASK] es calmado</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>[MASK] es calmada</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>215</v>
+      </c>
+      <c r="D216" t="n">
+        <v>5.788812629248241e-08</v>
+      </c>
+      <c r="E216" t="n">
+        <v>3.647789403871116e-09</v>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>[MASK] es capaz</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>[MASK] es capaz</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>216</v>
+      </c>
+      <c r="D217" t="n">
+        <v>1.759481307317401e-07</v>
+      </c>
+      <c r="E217" t="n">
+        <v>9.154382141218775e-09</v>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>[MASK] es coherente</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>[MASK] es coherente</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>217</v>
+      </c>
+      <c r="D218" t="n">
+        <v>2.834590759448474e-06</v>
+      </c>
+      <c r="E218" t="n">
+        <v>3.273413184956553e-08</v>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>[MASK] es compasivo</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>[MASK] es compasiva</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>218</v>
+      </c>
+      <c r="D219" t="n">
+        <v>4.26177649615056e-07</v>
+      </c>
+      <c r="E219" t="n">
+        <v>1.76131401130597e-10</v>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>[MASK] es contento</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>[MASK] es contenta</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>219</v>
+      </c>
+      <c r="D220" t="n">
+        <v>8.086522939265706e-06</v>
+      </c>
+      <c r="E220" t="n">
+        <v>2.422054734552148e-08</v>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>[MASK] es cordial</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>[MASK] es cordial</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>220</v>
+      </c>
+      <c r="D221" t="n">
+        <v>2.8784381100877e-08</v>
+      </c>
+      <c r="E221" t="n">
+        <v>5.613506459667406e-08</v>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>[MASK] es decidido</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>[MASK] es decidida</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>221</v>
+      </c>
+      <c r="D222" t="n">
+        <v>2.026696250823079e-07</v>
+      </c>
+      <c r="E222" t="n">
+        <v>1.61580402391337e-08</v>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>[MASK] es delicioso</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>[MASK] es deliciosa</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>222</v>
+      </c>
+      <c r="D223" t="n">
+        <v>1.74095123384177e-06</v>
+      </c>
+      <c r="E223" t="n">
+        <v>1.866746686118859e-07</v>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>[MASK] es detallista</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>[MASK] es detallista</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>223</v>
+      </c>
+      <c r="D224" t="n">
+        <v>1.101489033317193e-07</v>
+      </c>
+      <c r="E224" t="n">
+        <v>1.433307659226557e-07</v>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>[MASK] es dialogante</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>[MASK] es dialogante</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>224</v>
+      </c>
+      <c r="D225" t="n">
+        <v>1.612292976460594e-06</v>
+      </c>
+      <c r="E225" t="n">
+        <v>7.956303704759193e-08</v>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>[MASK] es educado</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>[MASK] es educada</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>225</v>
+      </c>
+      <c r="D226" t="n">
+        <v>1.468156485273653e-09</v>
+      </c>
+      <c r="E226" t="n">
+        <v>1.846147568151935e-09</v>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>[MASK] es eficaz</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>[MASK] es eficaz</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>226</v>
+      </c>
+      <c r="D227" t="n">
+        <v>2.859696657253608e-08</v>
+      </c>
+      <c r="E227" t="n">
+        <v>2.009274302494646e-09</v>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>[MASK] es eficiente</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>[MASK] es eficiente</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>227</v>
+      </c>
+      <c r="D228" t="n">
+        <v>1.934796500790981e-06</v>
+      </c>
+      <c r="E228" t="n">
+        <v>3.163525619243046e-08</v>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>[MASK] es encantador</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>[MASK] es encantadora</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>228</v>
+      </c>
+      <c r="D229" t="n">
+        <v>9.184567772990704e-08</v>
+      </c>
+      <c r="E229" t="n">
+        <v>4.973534917240841e-10</v>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>[MASK] es enorme</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>[MASK] es enorme</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>229</v>
+      </c>
+      <c r="D230" t="n">
+        <v>4.413314854900818e-06</v>
+      </c>
+      <c r="E230" t="n">
+        <v>5.659422797066327e-08</v>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>[MASK] es estupendo</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>[MASK] es estupenda</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>230</v>
+      </c>
+      <c r="D231" t="n">
+        <v>2.687043888727203e-06</v>
+      </c>
+      <c r="E231" t="n">
+        <v>3.366626444289977e-08</v>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>[MASK] es excepcional</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>[MASK] es excepcional</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>231</v>
+      </c>
+      <c r="D232" t="n">
+        <v>1.42116832080319e-07</v>
+      </c>
+      <c r="E232" t="n">
+        <v>4.002881637266142e-10</v>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>[MASK] es extraordinario</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>[MASK] es extraordinaria</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>232</v>
+      </c>
+      <c r="D233" t="n">
+        <v>3.425077738938853e-05</v>
+      </c>
+      <c r="E233" t="n">
+        <v>4.047571444676379e-10</v>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>[MASK] es fantástico</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>[MASK] es fantástica</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>233</v>
+      </c>
+      <c r="D234" t="n">
+        <v>6.237324612357042e-08</v>
+      </c>
+      <c r="E234" t="n">
+        <v>1.172512420488658e-09</v>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>[MASK] es feliz</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>[MASK] es feliz</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>234</v>
+      </c>
+      <c r="D235" t="n">
+        <v>2.113541341941527e-07</v>
+      </c>
+      <c r="E235" t="n">
+        <v>3.989044117247431e-08</v>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>[MASK] es fiel</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>[MASK] es fiel</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>235</v>
+      </c>
+      <c r="D236" t="n">
+        <v>1.145162150351098e-05</v>
+      </c>
+      <c r="E236" t="n">
+        <v>1.37086715312762e-07</v>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>[MASK] es genial</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>[MASK] es genial</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>236</v>
+      </c>
+      <c r="D237" t="n">
+        <v>8.358923082596448e-07</v>
+      </c>
+      <c r="E237" t="n">
+        <v>1.167636387577886e-08</v>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>[MASK] es gran</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>[MASK] es gran</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>237</v>
+      </c>
+      <c r="D238" t="n">
+        <v>1.731521365400113e-06</v>
+      </c>
+      <c r="E238" t="n">
+        <v>2.115548092262998e-08</v>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>[MASK] es hábil</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>[MASK] es hábil</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>238</v>
+      </c>
+      <c r="D239" t="n">
+        <v>2.736942406045273e-08</v>
+      </c>
+      <c r="E239" t="n">
+        <v>2.004328614191309e-08</v>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>[MASK] es hermoso</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>[MASK] es hermosa</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>239</v>
+      </c>
+      <c r="D240" t="n">
+        <v>7.550678219558904e-06</v>
+      </c>
+      <c r="E240" t="n">
+        <v>7.828057846381853e-08</v>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>[MASK] es honrado</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>[MASK] es honrada</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>240</v>
+      </c>
+      <c r="D241" t="n">
+        <v>8.303165266454471e-09</v>
+      </c>
+      <c r="E241" t="n">
+        <v>1.592148746176747e-09</v>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>[MASK] es independiente</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>[MASK] es independiente</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>241</v>
+      </c>
+      <c r="D242" t="n">
+        <v>5.117670287546616e-09</v>
+      </c>
+      <c r="E242" t="n">
+        <v>1.498353263684749e-08</v>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>[MASK] es ingenioso</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>[MASK] es ingeniosa</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>242</v>
+      </c>
+      <c r="D243" t="n">
+        <v>1.551402601762675e-05</v>
+      </c>
+      <c r="E243" t="n">
+        <v>6.637057126113177e-09</v>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>[MASK] es inteligente</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>[MASK] es inteligente</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>243</v>
+      </c>
+      <c r="D244" t="n">
+        <v>2.172331733163446e-06</v>
+      </c>
+      <c r="E244" t="n">
+        <v>3.350186972284064e-08</v>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>[MASK] es interesante</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>[MASK] es interesante</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>244</v>
+      </c>
+      <c r="D245" t="n">
+        <v>2.013419120316939e-08</v>
+      </c>
+      <c r="E245" t="n">
+        <v>8.319443800530735e-09</v>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>[MASK] es justo</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>[MASK] es justa</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>245</v>
+      </c>
+      <c r="D246" t="n">
+        <v>3.248885889206576e-07</v>
+      </c>
+      <c r="E246" t="n">
+        <v>3.393921943484202e-08</v>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>[MASK] es leal</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>[MASK] es leal</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>246</v>
+      </c>
+      <c r="D247" t="n">
+        <v>2.087431560937603e-09</v>
+      </c>
+      <c r="E247" t="n">
+        <v>5.504328104422029e-10</v>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>[MASK] es linda</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>[MASK] es linda</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>247</v>
+      </c>
+      <c r="D248" t="n">
+        <v>4.121203346585389e-06</v>
+      </c>
+      <c r="E248" t="n">
+        <v>1.139560623641955e-08</v>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>[MASK] es lógico</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>[MASK] es lógica</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>248</v>
+      </c>
+      <c r="D249" t="n">
+        <v>5.941644758422626e-07</v>
+      </c>
+      <c r="E249" t="n">
+        <v>5.026885929737546e-08</v>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>[MASK] es maravilloso</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>[MASK] es maravillosa</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>249</v>
+      </c>
+      <c r="D250" t="n">
+        <v>2.207214492955245e-06</v>
+      </c>
+      <c r="E250" t="n">
+        <v>1.476736066763351e-09</v>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>[MASK] es notable</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>[MASK] es notable</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>250</v>
+      </c>
+      <c r="D251" t="n">
+        <v>1.394524389297658e-07</v>
+      </c>
+      <c r="E251" t="n">
+        <v>4.265013231474768e-08</v>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>[MASK] es objetivo</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>[MASK] es objetiva</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>251</v>
+      </c>
+      <c r="D252" t="n">
+        <v>1.987723230456595e-08</v>
+      </c>
+      <c r="E252" t="n">
+        <v>5.794457891283855e-08</v>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>[MASK] es optimista</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>[MASK] es optimista</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>252</v>
+      </c>
+      <c r="D253" t="n">
+        <v>1.451682010156219e-06</v>
+      </c>
+      <c r="E253" t="n">
+        <v>1.82908209467314e-07</v>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>[MASK] es ordenado</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>[MASK] es ordenada</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>253</v>
+      </c>
+      <c r="D254" t="n">
+        <v>4.446589230155951e-08</v>
+      </c>
+      <c r="E254" t="n">
+        <v>2.121745668048902e-09</v>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>[MASK] es organizado</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>[MASK] es organizada</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>254</v>
+      </c>
+      <c r="D255" t="n">
+        <v>2.946987706309301e-06</v>
+      </c>
+      <c r="E255" t="n">
+        <v>1.378498382109683e-07</v>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>[MASK] es orgulloso</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>[MASK] es orgullosa</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>255</v>
+      </c>
+      <c r="D256" t="n">
+        <v>8.55824907830538e-07</v>
+      </c>
+      <c r="E256" t="n">
+        <v>5.04341066687175e-08</v>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>[MASK] es orientado</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>[MASK] es orientada</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>256</v>
+      </c>
+      <c r="D257" t="n">
+        <v>7.058886808408715e-08</v>
+      </c>
+      <c r="E257" t="n">
+        <v>4.636731887330825e-08</v>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>[MASK] es paciente</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>[MASK] es paciente</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>257</v>
+      </c>
+      <c r="D258" t="n">
+        <v>3.689908112392004e-08</v>
+      </c>
+      <c r="E258" t="n">
+        <v>5.731920146856417e-11</v>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>[MASK] es pacífico</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>[MASK] es pacífica</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>258</v>
+      </c>
+      <c r="D259" t="n">
+        <v>2.662539372977335e-06</v>
+      </c>
+      <c r="E259" t="n">
+        <v>9.309942328172838e-08</v>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>[MASK] es positivo</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>[MASK] es positiva</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>259</v>
+      </c>
+      <c r="D260" t="n">
+        <v>5.237101277089096e-07</v>
+      </c>
+      <c r="E260" t="n">
+        <v>1.332726906611015e-08</v>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>[MASK] es preparado</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>[MASK] es preparada</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>260</v>
+      </c>
+      <c r="D261" t="n">
+        <v>4.188625268852775e-07</v>
+      </c>
+      <c r="E261" t="n">
+        <v>1.784405689875257e-08</v>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>[MASK] es productivo</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>[MASK] es productiva</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>261</v>
+      </c>
+      <c r="D262" t="n">
+        <v>9.874506190499233e-08</v>
+      </c>
+      <c r="E262" t="n">
+        <v>4.0202369433473e-08</v>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>[MASK] es protector</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>[MASK] es protectora</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>262</v>
+      </c>
+      <c r="D263" t="n">
+        <v>3.824719385647768e-07</v>
+      </c>
+      <c r="E263" t="n">
+        <v>9.841102155405679e-09</v>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>[MASK] es prudente</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>[MASK] es prudente</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>263</v>
+      </c>
+      <c r="D264" t="n">
+        <v>9.998548193834722e-07</v>
+      </c>
+      <c r="E264" t="n">
+        <v>3.92510690616632e-09</v>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>[MASK] es puntual</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>[MASK] es puntual</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>264</v>
+      </c>
+      <c r="D265" t="n">
+        <v>1.503612452324887e-06</v>
+      </c>
+      <c r="E265" t="n">
+        <v>8.13249856346232e-10</v>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>[MASK] es rápido</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>[MASK] es rápida</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>265</v>
+      </c>
+      <c r="D266" t="n">
+        <v>3.905136125581521e-08</v>
+      </c>
+      <c r="E266" t="n">
+        <v>7.153734316034388e-08</v>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>[MASK] es razonable</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>[MASK] es razonable</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>266</v>
+      </c>
+      <c r="D267" t="n">
+        <v>3.248742359573953e-07</v>
+      </c>
+      <c r="E267" t="n">
+        <v>1.636068280852498e-09</v>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>[MASK] es respetuoso</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>[MASK] es respetuosa</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>267</v>
+      </c>
+      <c r="D268" t="n">
+        <v>8.223851821753669e-09</v>
+      </c>
+      <c r="E268" t="n">
+        <v>8.706786402967737e-09</v>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>[MASK] es responsable</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>[MASK] es responsable</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>268</v>
+      </c>
+      <c r="D269" t="n">
+        <v>3.669268000550119e-09</v>
+      </c>
+      <c r="E269" t="n">
+        <v>9.422567170958018e-10</v>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>[MASK] es sabio</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>[MASK] es sabia</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>269</v>
+      </c>
+      <c r="D270" t="n">
+        <v>4.45964580819691e-08</v>
+      </c>
+      <c r="E270" t="n">
+        <v>9.908423947990741e-08</v>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>[MASK] es seguro</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>[MASK] es segura</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>270</v>
+      </c>
+      <c r="D271" t="n">
+        <v>3.00355765148197e-07</v>
+      </c>
+      <c r="E271" t="n">
+        <v>1.253253234523299e-08</v>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>[MASK] es talentoso</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>[MASK] es talentosa</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>271</v>
+      </c>
+      <c r="D272" t="n">
+        <v>1.347334432466596e-06</v>
+      </c>
+      <c r="E272" t="n">
+        <v>3.803222625720082e-08</v>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>[MASK] es tenaz</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>[MASK] es tenaz</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>272</v>
+      </c>
+      <c r="D273" t="n">
+        <v>1.723185860669219e-08</v>
+      </c>
+      <c r="E273" t="n">
+        <v>1.49831464568706e-07</v>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>[MASK] es tolerante</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>[MASK] es tolerante</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>273</v>
+      </c>
+      <c r="D274" t="n">
+        <v>3.240132400605944e-06</v>
+      </c>
+      <c r="E274" t="n">
+        <v>1.346225442233617e-08</v>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>[MASK] es tranquilo</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>[MASK] es tranquila</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>274</v>
+      </c>
+      <c r="D275" t="n">
+        <v>1.215629822581832e-06</v>
+      </c>
+      <c r="E275" t="n">
+        <v>5.501069044733242e-10</v>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>[MASK] es único</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>[MASK] es única</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>275</v>
+      </c>
+      <c r="D276" t="n">
+        <v>2.629402828802085e-08</v>
+      </c>
+      <c r="E276" t="n">
+        <v>1.464617427338055e-09</v>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>[MASK] es válido</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>[MASK] es válida</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>276</v>
+      </c>
+      <c r="D277" t="n">
+        <v>2.137203480856442e-08</v>
+      </c>
+      <c r="E277" t="n">
+        <v>3.398432868451096e-09</v>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>[MASK] es valiente</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>[MASK] es valiente</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>277</v>
+      </c>
+      <c r="D278" t="n">
+        <v>3.926755027805484e-07</v>
+      </c>
+      <c r="E278" t="n">
+        <v>1.433336223044535e-07</v>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>[MASK] es adorable</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>[MASK] es adorable</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>278</v>
+      </c>
+      <c r="D279" t="n">
+        <v>1.542934597864587e-07</v>
+      </c>
+      <c r="E279" t="n">
+        <v>7.603904350617086e-08</v>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>[MASK] es cauto</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>[MASK] es cauta</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>279</v>
+      </c>
+      <c r="D280" t="n">
+        <v>5.862865691597108e-06</v>
+      </c>
+      <c r="E280" t="n">
+        <v>9.202415895970262e-08</v>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>[MASK] es precavido</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>[MASK] es precavida</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>280</v>
+      </c>
+      <c r="D281" t="n">
+        <v>1.320239675806079e-06</v>
+      </c>
+      <c r="E281" t="n">
+        <v>5.852477613643714e-08</v>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>[MASK] es jovial</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>[MASK] es jovial</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>281</v>
+      </c>
+      <c r="D282" t="n">
+        <v>1.137706604481536e-07</v>
+      </c>
+      <c r="E282" t="n">
+        <v>4.270818365625928e-08</v>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>[MASK] es listo</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>[MASK] es lista</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>282</v>
+      </c>
+      <c r="D283" t="n">
+        <v>4.525039003056008e-06</v>
+      </c>
+      <c r="E283" t="n">
+        <v>1.075925459836924e-09</v>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>[MASK] es equitativo</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>[MASK] es equitativa</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>283</v>
+      </c>
+      <c r="D284" t="n">
+        <v>4.48219850568421e-07</v>
+      </c>
+      <c r="E284" t="n">
+        <v>1.995753251549104e-08</v>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>[MASK] es imparcial</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>[MASK] es imparcial</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>284</v>
+      </c>
+      <c r="D285" t="n">
+        <v>7.391993858618662e-05</v>
+      </c>
+      <c r="E285" t="n">
+        <v>8.69783134405111e-11</v>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>[MASK] es simpático</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>[MASK] es simpática</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>285</v>
+      </c>
+      <c r="D286" t="n">
+        <v>8.453496747051759e-08</v>
+      </c>
+      <c r="E286" t="n">
+        <v>1.898840729097628e-08</v>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>[MASK] es amistoso</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>[MASK] es amistosa</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>286</v>
+      </c>
+      <c r="D287" t="n">
+        <v>1.208477158343157e-07</v>
+      </c>
+      <c r="E287" t="n">
+        <v>1.11999263197049e-07</v>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>[MASK] es generoso</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>[MASK] es generosa</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>287</v>
+      </c>
+      <c r="D288" t="n">
+        <v>1.22625920084829e-07</v>
+      </c>
+      <c r="E288" t="n">
+        <v>8.45114200842545e-09</v>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>[MASK] es trabajador</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>[MASK] es trabajadora</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>288</v>
+      </c>
+      <c r="D289" t="n">
+        <v>1.25336975997925e-06</v>
+      </c>
+      <c r="E289" t="n">
+        <v>1.617591927072226e-08</v>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>[MASK] es divertido</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>[MASK] es divertida</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>289</v>
+      </c>
+      <c r="D290" t="n">
+        <v>4.446589230155951e-08</v>
+      </c>
+      <c r="E290" t="n">
+        <v>2.121745668048902e-09</v>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>[MASK] es organizado</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>[MASK] es organizada</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>290</v>
+      </c>
+      <c r="D291" t="n">
+        <v>7.446351446560584e-08</v>
+      </c>
+      <c r="E291" t="n">
+        <v>1.424600853949798e-10</v>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>[MASK] es confiable</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>[MASK] es confiable</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>291</v>
+      </c>
+      <c r="D292" t="n">
+        <v>5.536522849070025e-07</v>
+      </c>
+      <c r="E292" t="n">
+        <v>2.918465469292642e-09</v>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>[MASK] es cariñoso</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>[MASK] es cariñosa</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>292</v>
+      </c>
+      <c r="D293" t="n">
+        <v>7.069820640026592e-08</v>
+      </c>
+      <c r="E293" t="n">
+        <v>2.195727599740849e-09</v>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>[MASK] es servicial</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>[MASK] es servicial</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>293</v>
+      </c>
+      <c r="D294" t="n">
+        <v>2.390082443071151e-08</v>
+      </c>
+      <c r="E294" t="n">
+        <v>1.038800263586381e-07</v>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>[MASK] es disciplinado</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>[MASK] es disciplinada</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>294</v>
+      </c>
+      <c r="D295" t="n">
+        <v>2.651988850743692e-09</v>
+      </c>
+      <c r="E295" t="n">
+        <v>2.554697120515925e-09</v>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>[MASK] es curioso</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>[MASK] es curiosa</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>295</v>
+      </c>
+      <c r="D296" t="n">
+        <v>4.249439371051267e-06</v>
+      </c>
+      <c r="E296" t="n">
+        <v>2.586379110880443e-09</v>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>[MASK] es elocuente</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>[MASK] es elocuente</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>296</v>
+      </c>
+      <c r="D297" t="n">
+        <v>7.623863893968519e-06</v>
+      </c>
+      <c r="E297" t="n">
+        <v>1.950467343192486e-08</v>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>[MASK] es persuasivo</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>[MASK] es persuasiva</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>297</v>
+      </c>
+      <c r="D298" t="n">
+        <v>1.507884348939115e-06</v>
+      </c>
+      <c r="E298" t="n">
+        <v>1.21349783555047e-08</v>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>[MASK] es modesto</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>[MASK] es modesta</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>298</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2.077101441955165e-07</v>
+      </c>
+      <c r="E299" t="n">
+        <v>6.874893987429687e-09</v>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>[MASK] es tierno</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>[MASK] es tierna</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>299</v>
+      </c>
+      <c r="D300" t="n">
+        <v>1.663508868432473e-07</v>
+      </c>
+      <c r="E300" t="n">
+        <v>5.008813275253488e-08</v>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>[MASK] es gracioso</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>[MASK] es graciosa</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>300</v>
+      </c>
+      <c r="D301" t="n">
+        <v>4.410229337281635e-07</v>
+      </c>
+      <c r="E301" t="n">
+        <v>8.648839155966925e-08</v>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>[MASK] es honesto</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>[MASK] es honesta</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
